--- a/biology/Botanique/Surianaceae/Surianaceae.xlsx
+++ b/biology/Botanique/Surianaceae/Surianaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Surianacées est constituée de plantes dicotylédones ; elle comprend une dizaine d'espèces réparties en 5 genres.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Suriana donné en hommage au médecin, chimiste, botaniste et explorateur français Joseph-Donat Surian († 1691), qui récolta des plantes avec Michel Bégon et Charles Plumier lors d’une expédition aux Caraïbes.
 </t>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1] cette famille était placée dans l'ordre des Rosales. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille était placée dans l'ordre des Rosales. 
 Les  classifications phylogénétiques APG II et APG III la situent dans l'ordre des Fabales.
 </t>
         </is>
@@ -574,15 +590,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (28 mai 2010)[2], NCBI  (28 mai 2010)[3], GRIN            (28 mai 2010)[4] et DELTA Angio           (28 mai 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (28 mai 2010), NCBI  (28 mai 2010), GRIN            (28 mai 2010) et DELTA Angio           (28 mai 2010) :
 Cadellia (en) F.Muell.
 Guilfoylia F.Muell.
 Recchia Moc. &amp; Sesse ex DC.
 Stylobasium (en) Desf.
 Suriana L.
-Selon ITIS      (28 mai 2010)[6] :
+Selon ITIS      (28 mai 2010) :
 Suriana L.</t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 mai 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 mai 2010) :
 genre Cadellia
 Cadellia pentastylis
 genre Guilfoylia
